--- a/BalanceSheet/VEEV_bal.xlsx
+++ b/BalanceSheet/VEEV_bal.xlsx
@@ -1776,19 +1776,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1210000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3060000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>914000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-4430000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1597000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>9914000.0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2484000.0</v>
+        <v>-12000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-1894000.0</v>
+        <v>-15000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-504000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-1134000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-8434000.0</v>
+        <v>-9000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>9042000.0</v>
